--- a/inputs/backup/MonthlyCosts.xlsx
+++ b/inputs/backup/MonthlyCosts.xlsx
@@ -14,66 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>BK</t>
-  </si>
-  <si>
-    <t>BK123141243</t>
-  </si>
-  <si>
-    <t>BK1231231</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Purchaise</t>
-  </si>
-  <si>
-    <t>Freight</t>
-  </si>
-  <si>
-    <t>Extra</t>
-  </si>
-  <si>
-    <t>Documents</t>
-  </si>
-  <si>
-    <t>Sale</t>
-  </si>
-  <si>
     <t>Volume</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>-180.00</t>
-  </si>
-  <si>
-    <t>-145.00</t>
-  </si>
-  <si>
-    <t>-2.00</t>
-  </si>
-  <si>
     <t>Currency</t>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -431,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,183 +411,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
         <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/backup/MonthlyCosts.xlsx
+++ b/inputs/backup/MonthlyCosts.xlsx
@@ -14,18 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
   <si>
     <t>BK</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
+    <t>Sale</t>
+  </si>
+  <si>
+    <t>Purchaise</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Payment Dealay</t>
+  </si>
+  <si>
     <t>Volume</t>
   </si>
   <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>-1.00</t>
+  </si>
+  <si>
+    <t>170.00</t>
+  </si>
+  <si>
+    <t>-180.00</t>
+  </si>
+  <si>
+    <t>-891.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>235.00</t>
+  </si>
+  <si>
+    <t>-170.00</t>
+  </si>
+  <si>
+    <t>-46.00</t>
+  </si>
+  <si>
     <t>Currency</t>
+  </si>
+  <si>
+    <t>USD</t>
   </si>
 </sst>
 </file>
@@ -383,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,13 +462,353 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
         <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
